--- a/Testing_data/2_filtered_dataset.xlsx
+++ b/Testing_data/2_filtered_dataset.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusnesileryte/Documents/GitHub/lma-data-pipeline/Testing_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDF75EA-ABB6-9D4E-AAE9-B1377880665E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E19D31F-34A9-2D43-B0FE-99C75E0ECE77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{5D19AA18-6576-8644-8C12-E4EC8ECA4C5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1473,9 +1474,6 @@
     <t>Verwerker_Postcode</t>
   </si>
   <si>
-    <t>Verwerker_Huisnummer</t>
-  </si>
-  <si>
     <t>Verwerker_Straat</t>
   </si>
   <si>
@@ -1516,6 +1514,9 @@
   </si>
   <si>
     <t>Afvalstroomnummer</t>
+  </si>
+  <si>
+    <t>Verwerker_Huisnr</t>
   </si>
 </sst>
 </file>
@@ -1531,26 +1532,17 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800080"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1563,12 +1555,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1576,12 +1566,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1899,7 +1886,7 @@
   <dimension ref="A1:AC62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1908,5421 +1895,5371 @@
     <col min="2" max="2" width="44.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="42" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>466</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>465</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>75</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>464</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
         <v>465</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>75</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>464</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
         <v>432</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>431</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>430</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>429</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="R2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
         <v>127</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" t="s">
         <v>126</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" t="s">
         <v>125</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2">
         <v>2016</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2">
         <v>9</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2">
         <v>1500</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>462</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>461</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
         <v>461</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>13</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>460</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
         <v>243</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" t="s">
         <v>242</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>22</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="R3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" t="s">
         <v>140</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" t="s">
         <v>139</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" t="s">
         <v>138</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="Z3">
         <v>2016</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AA3">
         <v>1</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AB3">
         <v>210</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AC3">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>460</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
         <v>461</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>13</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>460</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
         <v>243</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>242</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>22</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>241</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" s="1" t="s">
+      <c r="R4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
         <v>2</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
         <v>140</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" t="s">
         <v>139</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" t="s">
         <v>138</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4">
         <v>2016</v>
       </c>
-      <c r="AA4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="1">
+      <c r="AA4">
+        <v>4</v>
+      </c>
+      <c r="AB4">
         <v>20</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>388</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>459</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>458</v>
       </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>457</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>417</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>16</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S5" s="1" t="s">
+      <c r="R5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" t="s">
         <v>2</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" t="s">
         <v>274</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" t="s">
         <v>273</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" t="s">
         <v>273</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" t="s">
         <v>27</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z5">
         <v>2016</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA5">
         <v>7</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB5">
         <v>44060</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>459</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>458</v>
       </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>457</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>417</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6">
         <v>16</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" t="s">
         <v>52</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S6" s="1" t="s">
+      <c r="R6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" t="s">
         <v>360</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" t="s">
         <v>33</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" t="s">
         <v>359</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" t="s">
         <v>27</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Y6" t="s">
         <v>26</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6">
         <v>2016</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6">
         <v>10</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6">
         <v>31300</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>459</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>458</v>
       </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>457</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>417</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7">
         <v>16</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="1" t="s">
+      <c r="R7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" t="s">
         <v>2</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" t="s">
         <v>416</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" t="s">
         <v>415</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" t="s">
         <v>414</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" t="s">
         <v>26</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7">
         <v>2016</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7">
         <v>12</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7">
         <v>28960</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>454</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>453</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>416</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>452</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
         <v>453</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>416</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>452</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
         <v>451</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" t="s">
         <v>450</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8">
         <v>51</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" t="s">
         <v>449</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" t="s">
         <v>448</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="1" t="s">
+      <c r="R8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
         <v>2</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" t="s">
         <v>179</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" t="s">
         <v>178</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" t="s">
         <v>177</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="X8" t="s">
         <v>7</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Y8" t="s">
         <v>6</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z8">
         <v>2016</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA8">
         <v>7</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB8">
         <v>20020</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>454</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>453</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>416</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>452</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
         <v>453</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>416</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>452</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
         <v>451</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
         <v>450</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9">
         <v>51</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" t="s">
         <v>449</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" t="s">
         <v>448</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="1" t="s">
+      <c r="R9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s">
         <v>2</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" t="s">
         <v>179</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" t="s">
         <v>178</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" t="s">
         <v>177</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="X9" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Y9" t="s">
         <v>6</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="Z9">
         <v>2016</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AA9">
         <v>6</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB9">
         <v>13360</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AC9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>454</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>453</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>416</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>452</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
         <v>453</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>416</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>452</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
         <v>451</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>450</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10">
         <v>51</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" t="s">
         <v>449</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" t="s">
         <v>448</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="1" t="s">
+      <c r="R10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s">
         <v>2</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" t="s">
         <v>179</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" t="s">
         <v>178</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" t="s">
         <v>314</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="X10" t="s">
         <v>7</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" t="s">
         <v>6</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10">
         <v>2016</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10">
         <v>10</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10">
         <v>29840</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>227</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>454</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>453</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>416</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>452</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
         <v>453</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>416</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>452</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>56</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
         <v>451</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" t="s">
         <v>450</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11">
         <v>51</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" t="s">
         <v>449</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" t="s">
         <v>448</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T11" s="1" t="s">
+      <c r="R11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s">
         <v>2</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" t="s">
         <v>179</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" t="s">
         <v>178</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" t="s">
         <v>177</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="X11" t="s">
         <v>7</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Y11" t="s">
         <v>6</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z11">
         <v>2016</v>
       </c>
-      <c r="AA11" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB11" s="1">
+      <c r="AA11">
+        <v>4</v>
+      </c>
+      <c r="AB11">
         <v>40800</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>454</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>453</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>416</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>452</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
         <v>453</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>416</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>452</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="L12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" t="s">
         <v>451</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" t="s">
         <v>450</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12">
         <v>51</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" t="s">
         <v>449</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" t="s">
         <v>448</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="1" t="s">
+      <c r="R12" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s">
         <v>2</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" t="s">
         <v>179</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" t="s">
         <v>178</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" t="s">
         <v>177</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" t="s">
         <v>7</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Y12" t="s">
         <v>6</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z12">
         <v>2016</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA12">
         <v>11</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB12">
         <v>27880</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AC12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>272</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>445</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>444</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>59</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>443</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>442</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
         <v>444</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>59</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>443</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>442</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="L13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
         <v>441</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" t="s">
         <v>440</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13">
         <v>19</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" t="s">
         <v>439</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" t="s">
         <v>405</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T13" s="1" t="s">
+      <c r="R13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s">
         <v>2</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" t="s">
         <v>179</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" t="s">
         <v>178</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" t="s">
         <v>177</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X13" t="s">
         <v>7</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Y13" t="s">
         <v>6</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z13">
         <v>2016</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA13">
         <v>5</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB13">
         <v>2420</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>445</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>444</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>59</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>443</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>442</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
         <v>444</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>59</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>443</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>442</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="L14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" t="s">
         <v>441</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" t="s">
         <v>440</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14">
         <v>19</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" t="s">
         <v>439</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" t="s">
         <v>405</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T14" s="1" t="s">
+      <c r="R14" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
         <v>2</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" t="s">
         <v>379</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" t="s">
         <v>378</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" t="s">
         <v>377</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="X14" t="s">
         <v>7</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Y14" t="s">
         <v>6</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14">
         <v>2016</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14">
         <v>6</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB14">
         <v>4980</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC14">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>258</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>445</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>444</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>59</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>443</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>442</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
         <v>444</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>59</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>443</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>442</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="1" t="s">
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
         <v>441</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" t="s">
         <v>440</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15">
         <v>19</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" t="s">
         <v>439</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" t="s">
         <v>405</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" s="1" t="s">
+      <c r="R15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
         <v>2</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" t="s">
         <v>116</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" t="s">
         <v>115</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" t="s">
         <v>114</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X15" t="s">
         <v>7</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Y15" t="s">
         <v>6</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z15">
         <v>2016</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15">
         <v>6</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15">
         <v>1720</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>235</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>436</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>435</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>177</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>434</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>433</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
         <v>435</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>177</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>434</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>433</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" t="s">
         <v>432</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" t="s">
         <v>431</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16">
         <v>2</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" t="s">
         <v>430</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" t="s">
         <v>429</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U16" s="1" t="s">
+      <c r="R16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" t="s">
         <v>205</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" t="s">
         <v>204</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" t="s">
         <v>203</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="X16" t="s">
         <v>7</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Y16" t="s">
         <v>6</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z16">
         <v>2016</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AA16">
         <v>2</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AB16">
         <v>1000</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AC16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>427</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>424</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>30</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>423</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
         <v>426</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>30</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>423</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="L17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
         <v>294</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" t="s">
         <v>293</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17">
         <v>12</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" t="s">
         <v>292</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" t="s">
         <v>46</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="1" t="s">
+      <c r="R17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s">
         <v>2</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" t="s">
         <v>333</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" t="s">
         <v>332</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" t="s">
         <v>329</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="X17" t="s">
         <v>7</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Y17" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z17">
         <v>2017</v>
       </c>
-      <c r="AA17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB17" s="1">
+      <c r="AA17">
+        <v>3</v>
+      </c>
+      <c r="AB17">
         <v>3080</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AC17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>413</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>425</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>424</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>30</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>423</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
         <v>426</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>30</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>423</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="L18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" t="s">
         <v>294</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" t="s">
         <v>293</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18">
         <v>12</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" t="s">
         <v>292</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" t="s">
         <v>46</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="1" t="s">
+      <c r="R18" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s">
         <v>2</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" t="s">
         <v>331</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" t="s">
         <v>330</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" t="s">
         <v>329</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="X18" t="s">
         <v>7</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Y18" t="s">
         <v>6</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="Z18">
         <v>2017</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AA18">
         <v>5</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AB18">
         <v>1680</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AC18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>347</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>420</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>419</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>19</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>418</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>417</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
         <v>422</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>19</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>421</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>417</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
         <v>165</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" t="s">
         <v>208</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19">
         <v>15</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" t="s">
         <v>207</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" t="s">
         <v>206</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U19" s="1" t="s">
+      <c r="R19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" t="s">
         <v>216</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="V19" t="s">
         <v>215</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" t="s">
         <v>214</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="X19" t="s">
         <v>7</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Y19" t="s">
         <v>6</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z19">
         <v>2017</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AA19">
         <v>12</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AB19">
         <v>515</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AC19">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>412</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>411</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>263</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>410</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>409</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
         <v>411</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>263</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>410</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
         <v>409</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="L20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" t="s">
         <v>408</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" t="s">
         <v>407</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20">
         <v>22</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" t="s">
         <v>406</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" t="s">
         <v>405</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="1" t="s">
+      <c r="R20" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s">
         <v>2</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" t="s">
         <v>324</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" t="s">
         <v>323</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" t="s">
         <v>322</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="X20" t="s">
         <v>7</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Y20" t="s">
         <v>6</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z20">
         <v>2017</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AA20">
         <v>8</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AB20">
         <v>4040</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AC20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>446</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>401</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>400</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>30</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>399</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>398</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1" t="s">
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" t="s">
         <v>397</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" t="s">
         <v>396</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21">
         <v>9</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" t="s">
         <v>395</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" t="s">
         <v>394</v>
       </c>
-      <c r="R21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="1" t="s">
+      <c r="R21" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s">
         <v>2</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" t="s">
         <v>2</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" t="s">
         <v>161</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="V21" t="s">
         <v>160</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" t="s">
         <v>159</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="X21" t="s">
         <v>7</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Y21" t="s">
         <v>6</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z21">
         <v>2017</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AA21">
         <v>9</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB21">
         <v>1220</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AC21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>446</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>391</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>390</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>442</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>389</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
         <v>393</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>442</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>392</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>59</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="L22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" t="s">
         <v>182</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" t="s">
         <v>181</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22">
         <v>21</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" t="s">
         <v>180</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" t="s">
         <v>17</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U22" s="1" t="s">
+      <c r="R22" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" t="s">
         <v>189</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="V22" t="s">
         <v>188</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" t="s">
         <v>187</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="X22" t="s">
         <v>7</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y22" t="s">
         <v>6</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z22">
         <v>2017</v>
       </c>
-      <c r="AA22" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB22" s="1">
+      <c r="AA22">
+        <v>4</v>
+      </c>
+      <c r="AB22">
         <v>621</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AC22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>446</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>403</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>27</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>144</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>27</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" t="s">
         <v>144</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="1" t="s">
+      <c r="L23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" t="s">
         <v>182</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" t="s">
         <v>181</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23">
         <v>21</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" t="s">
         <v>180</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" t="s">
         <v>17</v>
       </c>
-      <c r="R23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" s="1" t="s">
+      <c r="R23" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" t="s">
         <v>338</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" t="s">
         <v>337</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" t="s">
         <v>336</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="X23" t="s">
         <v>7</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Y23" t="s">
         <v>6</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="Z23">
         <v>2017</v>
       </c>
-      <c r="AA23" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB23" s="1">
+      <c r="AA23">
+        <v>3</v>
+      </c>
+      <c r="AB23">
         <v>1774</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AC23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>437</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>387</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>386</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>11</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>385</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>384</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
         <v>386</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>11</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" t="s">
         <v>385</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" t="s">
         <v>384</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" t="s">
         <v>383</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" t="s">
         <v>382</v>
       </c>
-      <c r="O24" s="1">
-        <v>4</v>
-      </c>
-      <c r="P24" s="1" t="s">
+      <c r="O24">
+        <v>4</v>
+      </c>
+      <c r="P24" t="s">
         <v>381</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" t="s">
         <v>380</v>
       </c>
-      <c r="R24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U24" s="1" t="s">
+      <c r="R24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" t="s">
         <v>33</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" t="s">
         <v>32</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="X24" t="s">
         <v>7</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Y24" t="s">
         <v>6</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="Z24">
         <v>2017</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AA24">
         <v>7</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AB24">
         <v>8960</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AC24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>467</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>374</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>373</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>29</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>372</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
         <v>375</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>29</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" t="s">
         <v>372</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" s="1" t="s">
+      <c r="L25" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" t="s">
         <v>368</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" t="s">
         <v>367</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25">
         <v>25</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="P25" t="s">
         <v>366</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" t="s">
         <v>46</v>
       </c>
-      <c r="R25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T25" s="1" t="s">
+      <c r="R25" t="s">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s">
         <v>2</v>
       </c>
-      <c r="U25" s="1" t="s">
+      <c r="U25" t="s">
         <v>45</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="V25" t="s">
         <v>44</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="W25" t="s">
         <v>43</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="X25" t="s">
         <v>7</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="Y25" t="s">
         <v>6</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="Z25">
         <v>2017</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AA25">
         <v>6</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AB25">
         <v>18520</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AC25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>370</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>530</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>369</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
         <v>48</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <v>530</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" t="s">
         <v>369</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="1" t="s">
+      <c r="L26" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" t="s">
         <v>368</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" t="s">
         <v>367</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26">
         <v>25</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="P26" t="s">
         <v>366</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" t="s">
         <v>46</v>
       </c>
-      <c r="R26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="1" t="s">
+      <c r="R26" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s">
         <v>2</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="U26" t="s">
         <v>150</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="V26" t="s">
         <v>149</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" t="s">
         <v>456</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="X26" t="s">
         <v>7</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Y26" t="s">
         <v>6</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="Z26">
         <v>2017</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AA26">
         <v>5</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AB26">
         <v>15220</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AC26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>364</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>192</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>6</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>191</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>224</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
         <v>365</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>6</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" t="s">
         <v>224</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="1" t="s">
+      <c r="L27" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" t="s">
         <v>363</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" t="s">
         <v>362</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27">
         <v>66</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="P27" t="s">
         <v>361</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="Q27" t="s">
         <v>46</v>
       </c>
-      <c r="R27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="1" t="s">
+      <c r="R27" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" t="s">
         <v>150</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" t="s">
         <v>149</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="W27" t="s">
         <v>456</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="X27" t="s">
         <v>7</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="Y27" t="s">
         <v>6</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="Z27">
         <v>2017</v>
       </c>
-      <c r="AA27" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB27" s="1">
+      <c r="AA27">
+        <v>4</v>
+      </c>
+      <c r="AB27">
         <v>11560</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AC27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>345</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>344</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>5</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>343</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
         <v>346</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>5</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" t="s">
         <v>343</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" t="s">
         <v>56</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" t="s">
         <v>57</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" t="s">
         <v>342</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" t="s">
         <v>341</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28">
         <v>45</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" t="s">
         <v>340</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" t="s">
         <v>339</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U28" s="1" t="s">
+      <c r="R28" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s">
+        <v>3</v>
+      </c>
+      <c r="U28" t="s">
         <v>150</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="V28" t="s">
         <v>149</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" t="s">
         <v>148</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="X28" t="s">
         <v>7</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Y28" t="s">
         <v>6</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="Z28">
         <v>2017</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AA28">
         <v>10</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AB28">
         <v>8</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AC28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>327</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>326</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>36</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>325</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
         <v>319</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>36</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" t="s">
         <v>318</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="1" t="s">
+      <c r="L29" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" t="s">
         <v>165</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" t="s">
         <v>208</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29">
         <v>15</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" t="s">
         <v>207</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" t="s">
         <v>206</v>
       </c>
-      <c r="R29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U29" s="1" t="s">
+      <c r="R29" t="s">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29" t="s">
         <v>80</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="V29" t="s">
         <v>79</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" t="s">
         <v>79</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="X29" t="s">
         <v>7</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="Y29" t="s">
         <v>6</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="Z29">
         <v>2017</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AA29">
         <v>8</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AB29">
         <v>10</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AC29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>358</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>357</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>162</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>350</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
         <v>351</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>162</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" t="s">
         <v>350</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M30" s="1" t="s">
+      <c r="L30" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" t="s">
         <v>356</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" t="s">
         <v>355</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30">
         <v>14</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="P30" t="s">
         <v>289</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" t="s">
         <v>46</v>
       </c>
-      <c r="R30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U30" s="1" t="s">
+      <c r="R30" t="s">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s">
+        <v>3</v>
+      </c>
+      <c r="U30" t="s">
         <v>150</v>
       </c>
-      <c r="V30" s="1" t="s">
+      <c r="V30" t="s">
         <v>149</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="W30" t="s">
         <v>456</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="X30" t="s">
         <v>7</v>
       </c>
-      <c r="Y30" s="1" t="s">
+      <c r="Y30" t="s">
         <v>6</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="Z30">
         <v>2017</v>
       </c>
-      <c r="AA30" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB30" s="1">
+      <c r="AA30">
+        <v>3</v>
+      </c>
+      <c r="AB30">
         <v>15</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AC30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>334</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>326</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>36</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>318</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
         <v>319</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>36</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" t="s">
         <v>318</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M31" s="1" t="s">
+      <c r="L31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" t="s">
         <v>165</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" t="s">
         <v>208</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31">
         <v>15</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P31" t="s">
         <v>207</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Q31" t="s">
         <v>206</v>
       </c>
-      <c r="R31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U31" s="1" t="s">
+      <c r="R31" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U31" t="s">
         <v>150</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="V31" t="s">
         <v>149</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="W31" t="s">
         <v>148</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="X31" t="s">
         <v>7</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="Y31" t="s">
         <v>6</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="Z31">
         <v>2017</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AA31">
         <v>7</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AB31">
         <v>19</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AC31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>352</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>351</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>162</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>350</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
         <v>351</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>162</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" t="s">
         <v>350</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" t="s">
         <v>57</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" t="s">
         <v>275</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" t="s">
         <v>89</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32">
         <v>21</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="P32" t="s">
         <v>90</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="Q32" t="s">
         <v>46</v>
       </c>
-      <c r="R32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="1" t="s">
+      <c r="R32" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" t="s">
         <v>150</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="V32" t="s">
         <v>149</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="W32" t="s">
         <v>149</v>
       </c>
-      <c r="X32" s="1" t="s">
+      <c r="X32" t="s">
         <v>7</v>
       </c>
-      <c r="Y32" s="1" t="s">
+      <c r="Y32" t="s">
         <v>6</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="Z32">
         <v>2017</v>
       </c>
-      <c r="AA32" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB32" s="1">
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AB32">
         <v>22</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AC32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>327</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>326</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>36</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>325</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
         <v>319</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>36</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" t="s">
         <v>318</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="1" t="s">
+      <c r="L33" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" t="s">
         <v>165</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" t="s">
         <v>208</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33">
         <v>15</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P33" t="s">
         <v>207</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" t="s">
         <v>206</v>
       </c>
-      <c r="R33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="1" t="s">
+      <c r="R33" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" t="s">
         <v>143</v>
       </c>
-      <c r="V33" s="1" t="s">
+      <c r="V33" t="s">
         <v>142</v>
       </c>
-      <c r="W33" s="1" t="s">
+      <c r="W33" t="s">
         <v>142</v>
       </c>
-      <c r="X33" s="1" t="s">
+      <c r="X33" t="s">
         <v>7</v>
       </c>
-      <c r="Y33" s="1" t="s">
+      <c r="Y33" t="s">
         <v>6</v>
       </c>
-      <c r="Z33" s="1">
+      <c r="Z33">
         <v>2017</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AA33">
         <v>8</v>
       </c>
-      <c r="AB33" s="1">
+      <c r="AB33">
         <v>22</v>
       </c>
-      <c r="AC33" s="1">
+      <c r="AC33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>320</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>319</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>36</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>318</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
         <v>319</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>36</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" t="s">
         <v>318</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M34" s="1" t="s">
+      <c r="L34" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" t="s">
         <v>317</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" t="s">
         <v>316</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34">
         <v>1</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="P34" t="s">
         <v>315</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="Q34" t="s">
         <v>46</v>
       </c>
-      <c r="R34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U34" s="1" t="s">
+      <c r="R34" t="s">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s">
+        <v>3</v>
+      </c>
+      <c r="U34" t="s">
         <v>143</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="V34" t="s">
         <v>142</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="W34" t="s">
         <v>142</v>
       </c>
-      <c r="X34" s="1" t="s">
+      <c r="X34" t="s">
         <v>7</v>
       </c>
-      <c r="Y34" s="1" t="s">
+      <c r="Y34" t="s">
         <v>6</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="Z34">
         <v>2017</v>
       </c>
-      <c r="AA34" s="1">
+      <c r="AA34">
         <v>1</v>
       </c>
-      <c r="AB34" s="1">
+      <c r="AB34">
         <v>200</v>
       </c>
-      <c r="AC34" s="1">
+      <c r="AC34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>402</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>312</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>311</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>2</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>310</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="G35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
         <v>311</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <v>2</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" t="s">
         <v>310</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="1" t="s">
+      <c r="L35" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" t="s">
         <v>294</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" t="s">
         <v>293</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35">
         <v>12</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="P35" t="s">
         <v>292</v>
       </c>
-      <c r="Q35" s="1" t="s">
+      <c r="Q35" t="s">
         <v>46</v>
       </c>
-      <c r="R35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="1" t="s">
+      <c r="R35" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" t="s">
         <v>143</v>
       </c>
-      <c r="V35" s="1" t="s">
+      <c r="V35" t="s">
         <v>142</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="W35" t="s">
         <v>142</v>
       </c>
-      <c r="X35" s="1" t="s">
+      <c r="X35" t="s">
         <v>7</v>
       </c>
-      <c r="Y35" s="1" t="s">
+      <c r="Y35" t="s">
         <v>6</v>
       </c>
-      <c r="Z35" s="1">
+      <c r="Z35">
         <v>2017</v>
       </c>
-      <c r="AA35" s="1">
+      <c r="AA35">
         <v>6</v>
       </c>
-      <c r="AB35" s="1">
+      <c r="AB35">
         <v>30820</v>
       </c>
-      <c r="AC35" s="1">
+      <c r="AC35">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>308</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>307</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>306</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="G36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
         <v>307</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" t="s">
         <v>306</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M36" s="1" t="s">
+      <c r="L36" t="s">
+        <v>4</v>
+      </c>
+      <c r="M36" t="s">
         <v>294</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" t="s">
         <v>293</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36">
         <v>12</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="P36" t="s">
         <v>292</v>
       </c>
-      <c r="Q36" s="1" t="s">
+      <c r="Q36" t="s">
         <v>46</v>
       </c>
-      <c r="R36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T36" s="1" t="s">
+      <c r="R36" t="s">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s">
         <v>2</v>
       </c>
-      <c r="U36" s="1" t="s">
+      <c r="U36" t="s">
         <v>143</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="V36" t="s">
         <v>142</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="W36" t="s">
         <v>142</v>
       </c>
-      <c r="X36" s="1" t="s">
+      <c r="X36" t="s">
         <v>7</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="Y36" t="s">
         <v>6</v>
       </c>
-      <c r="Z36" s="1">
+      <c r="Z36">
         <v>2017</v>
       </c>
-      <c r="AA36" s="1">
+      <c r="AA36">
         <v>8</v>
       </c>
-      <c r="AB36" s="1">
+      <c r="AB36">
         <v>4980</v>
       </c>
-      <c r="AC36" s="1">
+      <c r="AC36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>304</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>303</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>87</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>302</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37">
         <v>87</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" t="s">
         <v>302</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M37" s="1" t="s">
+      <c r="L37" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" t="s">
         <v>294</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N37" t="s">
         <v>293</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37">
         <v>12</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="P37" t="s">
         <v>292</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="Q37" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T37" s="1" t="s">
+      <c r="R37" t="s">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s">
         <v>2</v>
       </c>
-      <c r="U37" s="1" t="s">
+      <c r="U37" t="s">
         <v>143</v>
       </c>
-      <c r="V37" s="1" t="s">
+      <c r="V37" t="s">
         <v>142</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="W37" t="s">
         <v>142</v>
       </c>
-      <c r="X37" s="1" t="s">
+      <c r="X37" t="s">
         <v>7</v>
       </c>
-      <c r="Y37" s="1" t="s">
+      <c r="Y37" t="s">
         <v>6</v>
       </c>
-      <c r="Z37" s="1">
+      <c r="Z37">
         <v>2017</v>
       </c>
-      <c r="AA37" s="1">
+      <c r="AA37">
         <v>9</v>
       </c>
-      <c r="AB37" s="1">
+      <c r="AB37">
         <v>3260</v>
       </c>
-      <c r="AC37" s="1">
+      <c r="AC37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>297</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>17</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>295</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H38" s="1" t="s">
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" t="s">
         <v>296</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <v>17</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" t="s">
         <v>295</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M38" s="1" t="s">
+      <c r="L38" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38" t="s">
         <v>294</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="N38" t="s">
         <v>293</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38">
         <v>12</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="P38" t="s">
         <v>292</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" t="s">
         <v>46</v>
       </c>
-      <c r="R38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T38" s="1" t="s">
+      <c r="R38" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s">
         <v>2</v>
       </c>
-      <c r="U38" s="1" t="s">
+      <c r="U38" t="s">
         <v>30</v>
       </c>
-      <c r="V38" s="1" t="s">
+      <c r="V38" t="s">
         <v>29</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="W38" t="s">
         <v>291</v>
       </c>
-      <c r="X38" s="1" t="s">
+      <c r="X38" t="s">
         <v>7</v>
       </c>
-      <c r="Y38" s="1" t="s">
+      <c r="Y38" t="s">
         <v>6</v>
       </c>
-      <c r="Z38" s="1">
+      <c r="Z38">
         <v>2017</v>
       </c>
-      <c r="AA38" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB38" s="1">
+      <c r="AA38">
+        <v>3</v>
+      </c>
+      <c r="AB38">
         <v>44930</v>
       </c>
-      <c r="AC38" s="1">
+      <c r="AC38">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>463</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>280</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>277</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>217</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>276</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" t="s">
         <v>279</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <v>217</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" t="s">
         <v>278</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M39" s="1" t="s">
+      <c r="L39" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39" t="s">
         <v>275</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" t="s">
         <v>89</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39">
         <v>21</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="P39" t="s">
         <v>90</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="Q39" t="s">
         <v>46</v>
       </c>
-      <c r="R39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U39" s="1" t="s">
+      <c r="R39" t="s">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s">
+        <v>3</v>
+      </c>
+      <c r="U39" t="s">
         <v>238</v>
       </c>
-      <c r="V39" s="1" t="s">
+      <c r="V39" t="s">
         <v>237</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="W39" t="s">
         <v>236</v>
       </c>
-      <c r="X39" s="1" t="s">
+      <c r="X39" t="s">
         <v>7</v>
       </c>
-      <c r="Y39" s="1" t="s">
+      <c r="Y39" t="s">
         <v>6</v>
       </c>
-      <c r="Z39" s="1">
+      <c r="Z39">
         <v>2018</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AA39">
         <v>10</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AB39">
         <v>20</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AC39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>463</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>287</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>286</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>32</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>285</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" t="s">
         <v>284</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" t="s">
         <v>288</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>32</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" t="s">
         <v>285</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" t="s">
         <v>284</v>
       </c>
-      <c r="L40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M40" s="1" t="s">
+      <c r="L40" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" t="s">
         <v>243</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" t="s">
         <v>242</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40">
         <v>22</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="P40" t="s">
         <v>241</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="Q40" t="s">
         <v>46</v>
       </c>
-      <c r="R40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U40" s="1" t="s">
+      <c r="R40" t="s">
+        <v>3</v>
+      </c>
+      <c r="S40" t="s">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s">
+        <v>3</v>
+      </c>
+      <c r="U40" t="s">
         <v>30</v>
       </c>
-      <c r="V40" s="1" t="s">
+      <c r="V40" t="s">
         <v>29</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="W40" t="s">
         <v>28</v>
       </c>
-      <c r="X40" s="1" t="s">
+      <c r="X40" t="s">
         <v>7</v>
       </c>
-      <c r="Y40" s="1" t="s">
+      <c r="Y40" t="s">
         <v>6</v>
       </c>
-      <c r="Z40" s="1">
+      <c r="Z40">
         <v>2018</v>
       </c>
-      <c r="AA40" s="1">
+      <c r="AA40">
         <v>8</v>
       </c>
-      <c r="AB40" s="1">
+      <c r="AB40">
         <v>210</v>
       </c>
-      <c r="AC40" s="1">
+      <c r="AC40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>248</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>271</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>270</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>269</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>254</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" t="s">
         <v>256</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41">
         <v>2</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" t="s">
         <v>255</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" t="s">
         <v>254</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="1" t="s">
+      <c r="L41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" t="s">
         <v>268</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" t="s">
         <v>267</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41">
         <v>17</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="P41" t="s">
         <v>266</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="Q41" t="s">
         <v>265</v>
       </c>
-      <c r="R41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T41" s="1" t="s">
+      <c r="R41" t="s">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s">
         <v>2</v>
       </c>
-      <c r="U41" s="1" t="s">
+      <c r="U41" t="s">
         <v>63</v>
       </c>
-      <c r="V41" s="1" t="s">
+      <c r="V41" t="s">
         <v>62</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="W41" t="s">
         <v>75</v>
       </c>
-      <c r="X41" s="1" t="s">
+      <c r="X41" t="s">
         <v>7</v>
       </c>
-      <c r="Y41" s="1" t="s">
+      <c r="Y41" t="s">
         <v>6</v>
       </c>
-      <c r="Z41" s="1">
+      <c r="Z41">
         <v>2018</v>
       </c>
-      <c r="AA41" s="1">
+      <c r="AA41">
         <v>7</v>
       </c>
-      <c r="AB41" s="1">
+      <c r="AB41">
         <v>1000</v>
       </c>
-      <c r="AC41" s="1">
+      <c r="AC41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>263</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>262</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>261</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>46</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>260</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" t="s">
         <v>261</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42">
         <v>46</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" t="s">
         <v>260</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="1" t="s">
+      <c r="L42" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" t="s">
         <v>243</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N42" t="s">
         <v>242</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42">
         <v>22</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="P42" t="s">
         <v>241</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="Q42" t="s">
         <v>46</v>
       </c>
-      <c r="R42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T42" s="1" t="s">
+      <c r="R42" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s">
         <v>2</v>
       </c>
-      <c r="U42" s="1" t="s">
+      <c r="U42" t="s">
         <v>63</v>
       </c>
-      <c r="V42" s="1" t="s">
+      <c r="V42" t="s">
         <v>62</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="W42" t="s">
         <v>61</v>
       </c>
-      <c r="X42" s="1" t="s">
+      <c r="X42" t="s">
         <v>7</v>
       </c>
-      <c r="Y42" s="1" t="s">
+      <c r="Y42" t="s">
         <v>6</v>
       </c>
-      <c r="Z42" s="1">
+      <c r="Z42">
         <v>2018</v>
       </c>
-      <c r="AA42" s="1">
+      <c r="AA42">
         <v>8</v>
       </c>
-      <c r="AB42" s="1">
+      <c r="AB42">
         <v>210</v>
       </c>
-      <c r="AC42" s="1">
+      <c r="AC42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>176</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>257</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>256</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>255</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" t="s">
         <v>254</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1" t="s">
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" t="s">
         <v>253</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" t="s">
         <v>252</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43">
         <v>15</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="P43" t="s">
         <v>251</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="Q43" t="s">
         <v>250</v>
       </c>
-      <c r="R43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S43" s="1" t="s">
+      <c r="R43" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" t="s">
         <v>2</v>
       </c>
-      <c r="T43" s="1" t="s">
+      <c r="T43" t="s">
         <v>2</v>
       </c>
-      <c r="U43" s="1" t="s">
+      <c r="U43" t="s">
         <v>16</v>
       </c>
-      <c r="V43" s="1" t="s">
+      <c r="V43" t="s">
         <v>15</v>
       </c>
-      <c r="W43" s="1" t="s">
+      <c r="W43" t="s">
         <v>73</v>
       </c>
-      <c r="X43" s="1" t="s">
+      <c r="X43" t="s">
         <v>7</v>
       </c>
-      <c r="Y43" s="1" t="s">
+      <c r="Y43" t="s">
         <v>6</v>
       </c>
-      <c r="Z43" s="1">
+      <c r="Z43">
         <v>2018</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AA43">
         <v>6</v>
       </c>
-      <c r="AB43" s="1">
+      <c r="AB43">
         <v>1520</v>
       </c>
-      <c r="AC43" s="1">
+      <c r="AC43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>313</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>246</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>245</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>17</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>244</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="G44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
         <v>247</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44">
         <v>17</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" t="s">
         <v>244</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="1" t="s">
+      <c r="L44" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" t="s">
         <v>243</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N44" t="s">
         <v>242</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44">
         <v>22</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="P44" t="s">
         <v>241</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="Q44" t="s">
         <v>46</v>
       </c>
-      <c r="R44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T44" s="1" t="s">
+      <c r="R44" t="s">
+        <v>3</v>
+      </c>
+      <c r="S44" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s">
         <v>2</v>
       </c>
-      <c r="U44" s="1" t="s">
+      <c r="U44" t="s">
         <v>16</v>
       </c>
-      <c r="V44" s="1" t="s">
+      <c r="V44" t="s">
         <v>15</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="W44" t="s">
         <v>20</v>
       </c>
-      <c r="X44" s="1" t="s">
+      <c r="X44" t="s">
         <v>72</v>
       </c>
-      <c r="Y44" s="1" t="s">
+      <c r="Y44" t="s">
         <v>71</v>
       </c>
-      <c r="Z44" s="1">
+      <c r="Z44">
         <v>2018</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AA44">
         <v>9</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AB44">
         <v>30</v>
       </c>
-      <c r="AC44" s="1">
+      <c r="AC44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>428</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>233</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>232</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" t="s">
         <v>231</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1" t="s">
+      <c r="G45" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" t="s">
         <v>230</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="N45" t="s">
         <v>229</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45">
         <v>78</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="P45" t="s">
         <v>228</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="Q45" t="s">
         <v>13</v>
       </c>
-      <c r="R45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S45" s="1" t="s">
+      <c r="R45" t="s">
+        <v>3</v>
+      </c>
+      <c r="S45" t="s">
         <v>2</v>
       </c>
-      <c r="T45" s="1" t="s">
+      <c r="T45" t="s">
         <v>2</v>
       </c>
-      <c r="U45" s="1" t="s">
+      <c r="U45" t="s">
         <v>10</v>
       </c>
-      <c r="V45" s="1" t="s">
+      <c r="V45" t="s">
         <v>9</v>
       </c>
-      <c r="W45" s="1" t="s">
+      <c r="W45" t="s">
         <v>12</v>
       </c>
-      <c r="X45" s="1" t="s">
+      <c r="X45" t="s">
         <v>78</v>
       </c>
-      <c r="Y45" s="1" t="s">
+      <c r="Y45" t="s">
         <v>77</v>
       </c>
-      <c r="Z45" s="1">
+      <c r="Z45">
         <v>2018</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AA45">
         <v>2</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AB45">
         <v>160800</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AC45">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>305</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>239</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>222</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>11</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>221</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" s="1" t="s">
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" t="s">
         <v>226</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>24</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" t="s">
         <v>225</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" t="s">
         <v>224</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="1" t="s">
+      <c r="L46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" t="s">
         <v>220</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N46" t="s">
         <v>219</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46">
         <v>16</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="P46" t="s">
         <v>218</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="Q46" t="s">
         <v>217</v>
       </c>
-      <c r="R46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U46" s="1" t="s">
+      <c r="R46" t="s">
+        <v>3</v>
+      </c>
+      <c r="S46" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" t="s">
         <v>10</v>
       </c>
-      <c r="V46" s="1" t="s">
+      <c r="V46" t="s">
         <v>9</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="W46" t="s">
         <v>8</v>
       </c>
-      <c r="X46" s="1" t="s">
+      <c r="X46" t="s">
         <v>78</v>
       </c>
-      <c r="Y46" s="1" t="s">
+      <c r="Y46" t="s">
         <v>77</v>
       </c>
-      <c r="Z46" s="1">
+      <c r="Z46">
         <v>2018</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="AA46">
         <v>11</v>
       </c>
-      <c r="AB46" s="1">
+      <c r="AB46">
         <v>64</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AC46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>298</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>234</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>211</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>65</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>210</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" t="s">
         <v>209</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="1" t="s">
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" t="s">
         <v>211</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>65</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" t="s">
         <v>210</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" t="s">
         <v>209</v>
       </c>
-      <c r="L47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="1" t="s">
+      <c r="L47" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" t="s">
         <v>182</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="N47" t="s">
         <v>181</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47">
         <v>21</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="P47" t="s">
         <v>180</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="Q47" t="s">
         <v>17</v>
       </c>
-      <c r="R47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U47" s="1" t="s">
+      <c r="R47" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s">
+        <v>3</v>
+      </c>
+      <c r="U47" t="s">
         <v>51</v>
       </c>
-      <c r="V47" s="1" t="s">
+      <c r="V47" t="s">
         <v>50</v>
       </c>
-      <c r="W47" s="1" t="s">
+      <c r="W47" t="s">
         <v>404</v>
       </c>
-      <c r="X47" s="1" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
-      <c r="Y47" s="1" t="s">
+      <c r="Y47" t="s">
         <v>77</v>
       </c>
-      <c r="Z47" s="1">
+      <c r="Z47">
         <v>2018</v>
       </c>
-      <c r="AA47" s="1">
+      <c r="AA47">
         <v>1</v>
       </c>
-      <c r="AB47" s="1">
+      <c r="AB47">
         <v>1331</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AC47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>309</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>223</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>211</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>65</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>210</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" t="s">
         <v>209</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" t="s">
         <v>211</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>65</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" t="s">
         <v>210</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="K48" t="s">
         <v>209</v>
       </c>
-      <c r="L48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="1" t="s">
+      <c r="L48" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" t="s">
         <v>165</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="N48" t="s">
         <v>208</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48">
         <v>15</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="P48" t="s">
         <v>207</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="Q48" t="s">
         <v>206</v>
       </c>
-      <c r="R48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U48" s="1" t="s">
+      <c r="R48" t="s">
+        <v>3</v>
+      </c>
+      <c r="S48" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" t="s">
         <v>51</v>
       </c>
-      <c r="V48" s="1" t="s">
+      <c r="V48" t="s">
         <v>50</v>
       </c>
-      <c r="W48" s="1" t="s">
+      <c r="W48" t="s">
         <v>249</v>
       </c>
-      <c r="X48" s="1" t="s">
+      <c r="X48" t="s">
         <v>42</v>
       </c>
-      <c r="Y48" s="1" t="s">
+      <c r="Y48" t="s">
         <v>41</v>
       </c>
-      <c r="Z48" s="1">
+      <c r="Z48">
         <v>2018</v>
       </c>
-      <c r="AA48" s="1">
+      <c r="AA48">
         <v>1</v>
       </c>
-      <c r="AB48" s="1">
+      <c r="AB48">
         <v>369</v>
       </c>
-      <c r="AC48" s="1">
+      <c r="AC48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>213</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>201</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>5</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>200</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" t="s">
         <v>199</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="1" t="s">
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" t="s">
         <v>201</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
         <v>5</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" t="s">
         <v>200</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K49" t="s">
         <v>199</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" s="1" t="s">
+      <c r="L49" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" t="s">
         <v>182</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="N49" t="s">
         <v>181</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49">
         <v>21</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="P49" t="s">
         <v>180</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="Q49" t="s">
         <v>17</v>
       </c>
-      <c r="R49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U49" s="1" t="s">
+      <c r="R49" t="s">
+        <v>3</v>
+      </c>
+      <c r="S49" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s">
+        <v>3</v>
+      </c>
+      <c r="U49" t="s">
         <v>51</v>
       </c>
-      <c r="V49" s="1" t="s">
+      <c r="V49" t="s">
         <v>50</v>
       </c>
-      <c r="W49" s="1" t="s">
+      <c r="W49" t="s">
         <v>264</v>
       </c>
-      <c r="X49" s="1" t="s">
+      <c r="X49" t="s">
         <v>42</v>
       </c>
-      <c r="Y49" s="1" t="s">
+      <c r="Y49" t="s">
         <v>41</v>
       </c>
-      <c r="Z49" s="1">
+      <c r="Z49">
         <v>2018</v>
       </c>
-      <c r="AA49" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB49" s="1">
+      <c r="AA49">
+        <v>3</v>
+      </c>
+      <c r="AB49">
         <v>2129</v>
       </c>
-      <c r="AC49" s="1">
+      <c r="AC49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>321</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>212</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>195</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>100</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>194</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H50" s="1" t="s">
+      <c r="G50" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" t="s">
         <v>198</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50">
         <v>100</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" t="s">
         <v>197</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K50" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M50" s="1" t="s">
+      <c r="L50" t="s">
+        <v>4</v>
+      </c>
+      <c r="M50" t="s">
         <v>193</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="N50" t="s">
         <v>192</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50">
         <v>6</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="P50" t="s">
         <v>191</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="Q50" t="s">
         <v>190</v>
       </c>
-      <c r="R50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U50" s="1" t="s">
+      <c r="R50" t="s">
+        <v>3</v>
+      </c>
+      <c r="S50" t="s">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s">
+        <v>3</v>
+      </c>
+      <c r="U50" t="s">
         <v>51</v>
       </c>
-      <c r="V50" s="1" t="s">
+      <c r="V50" t="s">
         <v>50</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="W50" t="s">
         <v>249</v>
       </c>
-      <c r="X50" s="1" t="s">
+      <c r="X50" t="s">
         <v>42</v>
       </c>
-      <c r="Y50" s="1" t="s">
+      <c r="Y50" t="s">
         <v>41</v>
       </c>
-      <c r="Z50" s="1">
+      <c r="Z50">
         <v>2018</v>
       </c>
-      <c r="AA50" s="1">
+      <c r="AA50">
         <v>5</v>
       </c>
-      <c r="AB50" s="1">
+      <c r="AB50">
         <v>236</v>
       </c>
-      <c r="AC50" s="1">
+      <c r="AC50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>376</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>184</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>22</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>183</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" t="s">
         <v>82</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="G51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" t="s">
         <v>186</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
         <v>22</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" t="s">
         <v>183</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="K51" t="s">
         <v>82</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M51" s="1" t="s">
+      <c r="L51" t="s">
+        <v>4</v>
+      </c>
+      <c r="M51" t="s">
         <v>182</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="N51" t="s">
         <v>181</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51">
         <v>21</v>
       </c>
-      <c r="P51" s="1" t="s">
+      <c r="P51" t="s">
         <v>180</v>
       </c>
-      <c r="Q51" s="1" t="s">
+      <c r="Q51" t="s">
         <v>17</v>
       </c>
-      <c r="R51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U51" s="1" t="s">
+      <c r="R51" t="s">
+        <v>3</v>
+      </c>
+      <c r="S51" t="s">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s">
+        <v>3</v>
+      </c>
+      <c r="U51" t="s">
         <v>51</v>
       </c>
-      <c r="V51" s="1" t="s">
+      <c r="V51" t="s">
         <v>50</v>
       </c>
-      <c r="W51" s="1" t="s">
+      <c r="W51" t="s">
         <v>240</v>
       </c>
-      <c r="X51" s="1" t="s">
+      <c r="X51" t="s">
         <v>42</v>
       </c>
-      <c r="Y51" s="1" t="s">
+      <c r="Y51" t="s">
         <v>41</v>
       </c>
-      <c r="Z51" s="1">
+      <c r="Z51">
         <v>2018</v>
       </c>
-      <c r="AA51" s="1">
+      <c r="AA51">
         <v>6</v>
       </c>
-      <c r="AB51" s="1">
+      <c r="AB51">
         <v>1880</v>
       </c>
-      <c r="AC51" s="1">
+      <c r="AC51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>370</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>41</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" t="s">
         <v>97</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" t="s">
         <v>175</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52">
         <v>47</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" t="s">
         <v>174</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="K52" t="s">
         <v>173</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" t="s">
         <v>57</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" t="s">
         <v>172</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="N52" t="s">
         <v>171</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52">
         <v>240</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="P52" t="s">
         <v>170</v>
       </c>
-      <c r="Q52" s="1" t="s">
+      <c r="Q52" t="s">
         <v>169</v>
       </c>
-      <c r="R52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52" s="1" t="s">
+      <c r="R52" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s">
         <v>2</v>
       </c>
-      <c r="U52" s="1" t="s">
+      <c r="U52" t="s">
         <v>51</v>
       </c>
-      <c r="V52" s="1" t="s">
+      <c r="V52" t="s">
         <v>50</v>
       </c>
-      <c r="W52" s="1" t="s">
+      <c r="W52" t="s">
         <v>50</v>
       </c>
-      <c r="X52" s="1" t="s">
+      <c r="X52" t="s">
         <v>42</v>
       </c>
-      <c r="Y52" s="1" t="s">
+      <c r="Y52" t="s">
         <v>41</v>
       </c>
-      <c r="Z52" s="1">
+      <c r="Z52">
         <v>2018</v>
       </c>
-      <c r="AA52" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB52" s="1">
+      <c r="AA52">
+        <v>4</v>
+      </c>
+      <c r="AB52">
         <v>7240</v>
       </c>
-      <c r="AC52" s="1">
+      <c r="AC52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>185</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>2</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>166</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" t="s">
         <v>24</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="1" t="s">
+      <c r="G53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" t="s">
         <v>167</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
         <v>2</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" t="s">
         <v>166</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="K53" t="s">
         <v>24</v>
       </c>
-      <c r="L53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M53" s="1" t="s">
+      <c r="L53" t="s">
+        <v>4</v>
+      </c>
+      <c r="M53" t="s">
         <v>165</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="N53" t="s">
         <v>164</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53">
         <v>27</v>
       </c>
-      <c r="P53" s="1" t="s">
+      <c r="P53" t="s">
         <v>163</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="Q53" t="s">
         <v>162</v>
       </c>
-      <c r="R53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U53" s="1" t="s">
+      <c r="R53" t="s">
+        <v>3</v>
+      </c>
+      <c r="S53" t="s">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s">
+        <v>3</v>
+      </c>
+      <c r="U53" t="s">
         <v>349</v>
       </c>
-      <c r="V53" s="1" t="s">
+      <c r="V53" t="s">
         <v>348</v>
       </c>
-      <c r="W53" s="1" t="s">
+      <c r="W53" t="s">
         <v>354</v>
       </c>
-      <c r="X53" s="1" t="s">
+      <c r="X53" t="s">
         <v>42</v>
       </c>
-      <c r="Y53" s="1" t="s">
+      <c r="Y53" t="s">
         <v>41</v>
       </c>
-      <c r="Z53" s="1">
+      <c r="Z53">
         <v>2018</v>
       </c>
-      <c r="AA53" s="1">
+      <c r="AA53">
         <v>8</v>
       </c>
-      <c r="AB53" s="1">
+      <c r="AB53">
         <v>100</v>
       </c>
-      <c r="AC53" s="1">
+      <c r="AC53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>14</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>156</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="G54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" t="s">
         <v>157</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54">
         <v>14</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" t="s">
         <v>156</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K54" t="s">
         <v>11</v>
       </c>
-      <c r="L54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="1" t="s">
+      <c r="L54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" t="s">
         <v>155</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" t="s">
         <v>154</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54">
         <v>17</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="P54" t="s">
         <v>153</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="Q54" t="s">
         <v>152</v>
       </c>
-      <c r="R54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U54" s="1" t="s">
+      <c r="R54" t="s">
+        <v>3</v>
+      </c>
+      <c r="S54" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" t="s">
         <v>349</v>
       </c>
-      <c r="V54" s="1" t="s">
+      <c r="V54" t="s">
         <v>348</v>
       </c>
-      <c r="W54" s="1" t="s">
+      <c r="W54" t="s">
         <v>348</v>
       </c>
-      <c r="X54" s="1" t="s">
+      <c r="X54" t="s">
         <v>42</v>
       </c>
-      <c r="Y54" s="1" t="s">
+      <c r="Y54" t="s">
         <v>41</v>
       </c>
-      <c r="Z54" s="1">
+      <c r="Z54">
         <v>2018</v>
       </c>
-      <c r="AA54" s="1">
+      <c r="AA54">
         <v>8</v>
       </c>
-      <c r="AB54" s="1">
+      <c r="AB54">
         <v>2780</v>
       </c>
-      <c r="AC54" s="1">
+      <c r="AC54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>455</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>17</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>135</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" t="s">
         <v>134</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" t="s">
         <v>133</v>
       </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1" t="s">
+      <c r="M55" t="s">
         <v>132</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="N55" t="s">
         <v>131</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55">
         <v>2</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="P55" t="s">
         <v>130</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="Q55" t="s">
         <v>129</v>
       </c>
-      <c r="R55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S55" s="1" t="s">
+      <c r="R55" t="s">
+        <v>3</v>
+      </c>
+      <c r="S55" t="s">
         <v>2</v>
       </c>
-      <c r="T55" s="1" t="s">
+      <c r="T55" t="s">
         <v>2</v>
       </c>
-      <c r="U55" s="1" t="s">
+      <c r="U55" t="s">
         <v>38</v>
       </c>
-      <c r="V55" s="1" t="s">
+      <c r="V55" t="s">
         <v>37</v>
       </c>
-      <c r="W55" s="1" t="s">
+      <c r="W55" t="s">
         <v>36</v>
       </c>
-      <c r="X55" s="1" t="s">
+      <c r="X55" t="s">
         <v>23</v>
       </c>
-      <c r="Y55" s="1" t="s">
+      <c r="Y55" t="s">
         <v>22</v>
       </c>
-      <c r="Z55" s="1">
+      <c r="Z55">
         <v>2019</v>
       </c>
-      <c r="AA55" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB55" s="1">
+      <c r="AA55">
+        <v>4</v>
+      </c>
+      <c r="AB55">
         <v>980</v>
       </c>
-      <c r="AC55" s="1">
+      <c r="AC55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>455</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>35</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>121</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H56" s="1" t="s">
+      <c r="G56" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" t="s">
         <v>122</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <v>35</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" t="s">
         <v>121</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="K56" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M56" s="1" t="s">
+      <c r="L56" t="s">
+        <v>4</v>
+      </c>
+      <c r="M56" t="s">
         <v>120</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="N56" t="s">
         <v>119</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56">
         <v>6</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="P56" t="s">
         <v>118</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="Q56" t="s">
         <v>117</v>
       </c>
-      <c r="R56" s="1" t="s">
+      <c r="R56" t="s">
         <v>2</v>
       </c>
-      <c r="S56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U56" s="1" t="s">
+      <c r="S56" t="s">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s">
+        <v>3</v>
+      </c>
+      <c r="U56" t="s">
         <v>301</v>
       </c>
-      <c r="V56" s="1" t="s">
+      <c r="V56" t="s">
         <v>300</v>
       </c>
-      <c r="W56" s="1" t="s">
+      <c r="W56" t="s">
         <v>447</v>
       </c>
-      <c r="X56" s="1" t="s">
+      <c r="X56" t="s">
         <v>23</v>
       </c>
-      <c r="Y56" s="1" t="s">
+      <c r="Y56" t="s">
         <v>22</v>
       </c>
-      <c r="Z56" s="1">
+      <c r="Z56">
         <v>2019</v>
       </c>
-      <c r="AA56" s="1">
+      <c r="AA56">
         <v>11</v>
       </c>
-      <c r="AB56" s="1">
+      <c r="AB56">
         <v>1550</v>
       </c>
-      <c r="AC56" s="1">
+      <c r="AC56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>455</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>41</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" t="s">
         <v>97</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1" t="s">
+      <c r="G57" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" t="s">
         <v>95</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="N57" t="s">
         <v>94</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57">
         <v>41</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="P57" t="s">
         <v>93</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="Q57" t="s">
         <v>92</v>
       </c>
-      <c r="R57" s="1" t="s">
+      <c r="R57" t="s">
         <v>2</v>
       </c>
-      <c r="S57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U57" s="1" t="s">
+      <c r="S57" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" t="s">
         <v>283</v>
       </c>
-      <c r="V57" s="1" t="s">
+      <c r="V57" t="s">
         <v>282</v>
       </c>
-      <c r="W57" s="1" t="s">
+      <c r="W57" t="s">
         <v>259</v>
       </c>
-      <c r="X57" s="1" t="s">
+      <c r="X57" t="s">
         <v>23</v>
       </c>
-      <c r="Y57" s="1" t="s">
+      <c r="Y57" t="s">
         <v>22</v>
       </c>
-      <c r="Z57" s="1">
+      <c r="Z57">
         <v>2019</v>
       </c>
-      <c r="AA57" s="1">
+      <c r="AA57">
         <v>2</v>
       </c>
-      <c r="AB57" s="1">
+      <c r="AB57">
         <v>6260</v>
       </c>
-      <c r="AC57" s="1">
+      <c r="AC57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>281</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>110</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>8</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" t="s">
         <v>59</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1" t="s">
+      <c r="G58" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" t="s">
         <v>108</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="N58" t="s">
         <v>107</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58">
         <v>10</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="P58" t="s">
         <v>106</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="Q58" t="s">
         <v>58</v>
       </c>
-      <c r="R58" s="1" t="s">
+      <c r="R58" t="s">
         <v>2</v>
       </c>
-      <c r="S58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T58" s="1" t="s">
+      <c r="S58" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s">
         <v>2</v>
       </c>
-      <c r="U58" s="1" t="s">
+      <c r="U58" t="s">
         <v>301</v>
       </c>
-      <c r="V58" s="1" t="s">
+      <c r="V58" t="s">
         <v>300</v>
       </c>
-      <c r="W58" s="1" t="s">
+      <c r="W58" t="s">
         <v>447</v>
       </c>
-      <c r="X58" s="1" t="s">
+      <c r="X58" t="s">
         <v>23</v>
       </c>
-      <c r="Y58" s="1" t="s">
+      <c r="Y58" t="s">
         <v>22</v>
       </c>
-      <c r="Z58" s="1">
+      <c r="Z58">
         <v>2019</v>
       </c>
-      <c r="AA58" s="1">
+      <c r="AA58">
         <v>2</v>
       </c>
-      <c r="AB58" s="1">
+      <c r="AB58">
         <v>370</v>
       </c>
-      <c r="AC58" s="1">
+      <c r="AC58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>353</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>35</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>104</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" t="s">
         <v>82</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1" t="s">
+      <c r="G59" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" t="s">
         <v>103</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="N59" t="s">
         <v>102</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59">
         <v>81</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="P59" t="s">
         <v>101</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="Q59" t="s">
         <v>81</v>
       </c>
-      <c r="R59" s="1" t="s">
+      <c r="R59" t="s">
         <v>2</v>
       </c>
-      <c r="S59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T59" s="1" t="s">
+      <c r="S59" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s">
         <v>2</v>
       </c>
-      <c r="U59" s="1" t="s">
+      <c r="U59" t="s">
         <v>301</v>
       </c>
-      <c r="V59" s="1" t="s">
+      <c r="V59" t="s">
         <v>300</v>
       </c>
-      <c r="W59" s="1" t="s">
+      <c r="W59" t="s">
         <v>447</v>
       </c>
-      <c r="X59" s="1" t="s">
+      <c r="X59" t="s">
         <v>23</v>
       </c>
-      <c r="Y59" s="1" t="s">
+      <c r="Y59" t="s">
         <v>22</v>
       </c>
-      <c r="Z59" s="1">
+      <c r="Z59">
         <v>2019</v>
       </c>
-      <c r="AA59" s="1">
+      <c r="AA59">
         <v>1</v>
       </c>
-      <c r="AB59" s="1">
+      <c r="AB59">
         <v>3688</v>
       </c>
-      <c r="AC59" s="1">
+      <c r="AC59">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>89</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>21</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>88</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" t="s">
         <v>18</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H60" s="1" t="s">
+      <c r="G60" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" t="s">
         <v>91</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60">
         <v>21</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" t="s">
         <v>90</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="K60" t="s">
         <v>18</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="1" t="s">
+      <c r="L60" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="N60" t="s">
         <v>86</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60">
         <v>1</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="P60" t="s">
         <v>85</v>
       </c>
-      <c r="Q60" s="1" t="s">
+      <c r="Q60" t="s">
         <v>84</v>
       </c>
-      <c r="R60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U60" s="1" t="s">
+      <c r="R60" t="s">
+        <v>3</v>
+      </c>
+      <c r="S60" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" t="s">
         <v>301</v>
       </c>
-      <c r="V60" s="1" t="s">
+      <c r="V60" t="s">
         <v>300</v>
       </c>
-      <c r="W60" s="1" t="s">
+      <c r="W60" t="s">
         <v>299</v>
       </c>
-      <c r="X60" s="1" t="s">
+      <c r="X60" t="s">
         <v>113</v>
       </c>
-      <c r="Y60" s="1" t="s">
+      <c r="Y60" t="s">
         <v>112</v>
       </c>
-      <c r="Z60" s="1">
+      <c r="Z60">
         <v>2019</v>
       </c>
-      <c r="AA60" s="1">
+      <c r="AA60">
         <v>5</v>
       </c>
-      <c r="AB60" s="1">
+      <c r="AB60">
         <v>35649280</v>
       </c>
-      <c r="AC60" s="1">
+      <c r="AC60">
         <v>1195</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>328</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>69</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" t="s">
         <v>68</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H61" s="1" t="s">
+      <c r="G61" t="s">
+        <v>4</v>
+      </c>
+      <c r="H61" t="s">
         <v>70</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" t="s">
         <v>69</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K61" t="s">
         <v>68</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M61" s="1" t="s">
+      <c r="L61" t="s">
+        <v>4</v>
+      </c>
+      <c r="M61" t="s">
         <v>67</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="N61" t="s">
         <v>66</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O61">
         <v>11</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="P61" t="s">
         <v>65</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="Q61" t="s">
         <v>64</v>
       </c>
-      <c r="R61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U61" s="1" t="s">
+      <c r="R61" t="s">
+        <v>3</v>
+      </c>
+      <c r="S61" t="s">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s">
+        <v>3</v>
+      </c>
+      <c r="U61" t="s">
         <v>1</v>
       </c>
-      <c r="V61" s="1" t="s">
+      <c r="V61" t="s">
         <v>0</v>
       </c>
-      <c r="W61" s="1" t="s">
+      <c r="W61" t="s">
         <v>438</v>
       </c>
-      <c r="X61" s="1" t="s">
+      <c r="X61" t="s">
         <v>113</v>
       </c>
-      <c r="Y61" s="1" t="s">
+      <c r="Y61" t="s">
         <v>112</v>
       </c>
-      <c r="Z61" s="1">
+      <c r="Z61">
         <v>2019</v>
       </c>
-      <c r="AA61" s="1">
+      <c r="AA61">
         <v>12</v>
       </c>
-      <c r="AB61" s="1">
+      <c r="AB61">
         <v>59316000</v>
       </c>
-      <c r="AC61" s="1">
+      <c r="AC61">
         <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>335</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>16</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="1" t="s">
+      <c r="G62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" t="s">
         <v>55</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62">
         <v>16</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" t="s">
         <v>52</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="K62" t="s">
         <v>21</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="L62" t="s">
         <v>57</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" t="s">
         <v>54</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="N62" t="s">
         <v>53</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62">
         <v>16</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="P62" t="s">
         <v>52</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="Q62" t="s">
         <v>46</v>
       </c>
-      <c r="R62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S62" s="1" t="s">
+      <c r="R62" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" t="s">
         <v>2</v>
       </c>
-      <c r="T62" s="1" t="s">
+      <c r="T62" t="s">
         <v>2</v>
       </c>
-      <c r="U62" s="1" t="s">
+      <c r="U62" t="s">
         <v>1</v>
       </c>
-      <c r="V62" s="1" t="s">
+      <c r="V62" t="s">
         <v>0</v>
       </c>
-      <c r="W62" s="1" t="s">
+      <c r="W62" t="s">
         <v>371</v>
       </c>
-      <c r="X62" s="1" t="s">
+      <c r="X62" t="s">
         <v>113</v>
       </c>
-      <c r="Y62" s="1" t="s">
+      <c r="Y62" t="s">
         <v>112</v>
       </c>
-      <c r="Z62" s="1">
+      <c r="Z62">
         <v>2020</v>
       </c>
-      <c r="AA62" s="1">
+      <c r="AA62">
         <v>6</v>
       </c>
-      <c r="AB62" s="1">
+      <c r="AB62">
         <v>8439873</v>
       </c>
-      <c r="AC62" s="1">
+      <c r="AC62">
         <v>3182</v>
       </c>
     </row>
@@ -7332,4 +7269,16 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4AD796-B1A2-A84B-9FF7-F58FA5977DA3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testing_data/2_filtered_dataset.xlsx
+++ b/Testing_data/2_filtered_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rusnesileryte/Documents/GitHub/lma-data-pipeline/Testing_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E19D31F-34A9-2D43-B0FE-99C75E0ECE77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B296B38-717F-2340-93D6-AFEAACD246A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{5D19AA18-6576-8644-8C12-E4EC8ECA4C5E}"/>
   </bookViews>
@@ -1886,13 +1886,13 @@
   <dimension ref="A1:AC62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="44.1640625" customWidth="1"/>
+    <col min="2" max="2" width="49.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.15">
@@ -6171,7 +6171,7 @@
         <v>321</v>
       </c>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C50" t="s">
         <v>195</v>
@@ -6349,7 +6349,7 @@
         <v>370</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
         <v>98</v>
